--- a/COVID19 Files/Indian Coordinates.xlsx
+++ b/COVID19 Files/Indian Coordinates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Documents\Python Projects\COVID-19-Data-Analyisis-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Documents\Python Projects\COVID-19-Data-Analyisis-master\COVID19 Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Latitude</t>
   </si>
@@ -137,13 +137,19 @@
   </si>
   <si>
     <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Dadra and Nagar Haveli and Daman and Diu</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +181,23 @@
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Open Sans"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,17 +216,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,15 +543,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="39.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.75" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -617,283 +644,306 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="18">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
+      <c r="A9" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B9" s="2">
-        <v>28.6699929</v>
+        <v>20.266578190000001</v>
       </c>
       <c r="C9" s="2">
-        <v>77.230004030000003</v>
+        <v>73.016617800000006</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>15.491997</v>
+        <v>28.6699929</v>
       </c>
       <c r="C10" s="2">
-        <v>73.818000650000002</v>
+        <v>77.230004030000003</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>22.258700000000001</v>
+        <v>15.491997</v>
       </c>
       <c r="C11" s="2">
-        <v>71.192400000000006</v>
+        <v>73.818000650000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>28.450006330000001</v>
+        <v>22.258700000000001</v>
       </c>
       <c r="C12" s="2">
-        <v>77.019991009999998</v>
+        <v>71.192400000000006</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>31.10002545</v>
+        <v>28.450006330000001</v>
       </c>
       <c r="C13" s="2">
-        <v>77.166597039999999</v>
+        <v>77.019991009999998</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2">
-        <v>33.450000000000003</v>
+        <v>31.10002545</v>
       </c>
       <c r="C14" s="2">
-        <v>76.239999999999995</v>
+        <v>77.166597039999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>23.800393490000001</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="C15" s="2">
-        <v>86.41998572</v>
+        <v>76.239999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>12.57038129</v>
+        <v>23.800393490000001</v>
       </c>
       <c r="C16" s="2">
-        <v>76.919997109999997</v>
+        <v>86.41998572</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
       <c r="A17" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
-        <v>8.900372741</v>
+        <v>12.57038129</v>
       </c>
       <c r="C17" s="2">
-        <v>76.569992630000002</v>
+        <v>76.919997109999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>34.1</v>
+        <v>8.900372741</v>
       </c>
       <c r="C18" s="2">
-        <v>77.34</v>
+        <v>76.569992630000002</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>21.300391050000002</v>
+        <v>34.1</v>
       </c>
       <c r="C19" s="2">
-        <v>76.130019489999995</v>
+        <v>77.34</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>19.25023195</v>
+        <v>21.300391050000002</v>
       </c>
       <c r="C20" s="2">
-        <v>73.160174929999997</v>
+        <v>76.130019489999995</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2">
-        <v>24.799970720000001</v>
+        <v>19.25023195</v>
       </c>
       <c r="C21" s="2">
-        <v>93.95001705</v>
+        <v>73.160174929999997</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>25.570492170000001</v>
+        <v>24.799970720000001</v>
       </c>
       <c r="C22" s="2">
-        <v>91.880014200000005</v>
+        <v>93.95001705</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>23.710398990000002</v>
+        <v>25.570492170000001</v>
       </c>
       <c r="C23" s="2">
-        <v>92.720014610000007</v>
+        <v>91.880014200000005</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>19.820429709999999</v>
+        <v>23.710398990000002</v>
       </c>
       <c r="C24" s="2">
-        <v>85.900017460000001</v>
+        <v>92.720014610000007</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>11.934993710000001</v>
+        <v>19.820429709999999</v>
       </c>
       <c r="C25" s="2">
-        <v>79.830000369999993</v>
+        <v>85.900017460000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18">
       <c r="A26" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>31.51997398</v>
+        <v>11.934993710000001</v>
       </c>
       <c r="C26" s="2">
-        <v>75.980002810000002</v>
+        <v>79.830000369999993</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
       <c r="A27" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>26.449999210000001</v>
+        <v>31.51997398</v>
       </c>
       <c r="C27" s="2">
-        <v>74.639981239999997</v>
+        <v>75.980002810000002</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18">
       <c r="A28" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>18.112400000000001</v>
+        <v>26.449999210000001</v>
       </c>
       <c r="C28" s="2">
-        <v>79.019300000000001</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>74.639981239999997</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="18">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
+      <c r="A29" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B29" s="2">
-        <v>12.92038576</v>
+        <v>27.3333303</v>
       </c>
       <c r="C29" s="2">
-        <v>79.150041869999995</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>88.616647499999999</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="18">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2">
-        <v>23.835404279999999</v>
+        <v>18.112400000000001</v>
       </c>
       <c r="C30" s="2">
-        <v>91.279999140000001</v>
-      </c>
+        <v>79.019300000000001</v>
+      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="18">
       <c r="A31" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2">
-        <v>27.599980689999999</v>
+        <v>12.92038576</v>
       </c>
       <c r="C31" s="2">
-        <v>78.050005650000003</v>
-      </c>
+        <v>79.150041869999995</v>
+      </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="18">
       <c r="A32" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>30.320408950000001</v>
+        <v>23.835404279999999</v>
       </c>
       <c r="C32" s="2">
-        <v>78.050005650000003</v>
+        <v>91.279999140000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
       <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2">
+        <v>27.599980689999999</v>
+      </c>
+      <c r="C33" s="2">
+        <v>78.050005650000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18">
+      <c r="A34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2">
+        <v>30.320408950000001</v>
+      </c>
+      <c r="C34" s="2">
+        <v>78.050005650000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B35" s="2">
         <v>22.580390439999999</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C35" s="2">
         <v>88.329946649999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>